--- a/data/trans_bre/P25_10-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,03</t>
+          <t>22,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>24,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,82</t>
+          <t>19,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>336,93%</t>
+          <t>25,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>362,06%</t>
+          <t>317,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>256,3%</t>
+          <t>630,63%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>373,12%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>253,95%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,77; 25,56</t>
+          <t>15,0; 30,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,87</t>
+          <t>17,34; 31,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,77; 18,74</t>
+          <t>11,6; 25,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>171,6; 651,56</t>
+          <t>16,53; 34,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>178,54; 739,2</t>
+          <t>143,94; 733,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>112,73; 518,97</t>
+          <t>256,37; 1638,26</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>135,46; 885,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>112,13; 531,42</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,11</t>
+          <t>15,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>12,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>431,04%</t>
+          <t>12,88</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>305,3%</t>
+          <t>240,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>241,47%</t>
+          <t>127,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>197,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>144,74%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 28,14</t>
+          <t>7,61; 23,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 20,79</t>
+          <t>1,83; 16,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 21,17</t>
+          <t>5,29; 19,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>203,69; 831,35</t>
+          <t>3,68; 21,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>123,59; 672,36</t>
+          <t>64,94; 618,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>100,01; 477,31</t>
+          <t>9,65; 376,16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>47,05; 563,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20,22; 349,75</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,73</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>197,84%</t>
+          <t>20,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>464,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>160,82%</t>
+          <t>317,26%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>753,49%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 24,99</t>
+          <t>1,34; 31,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 19,2</t>
+          <t>-1,48; 26,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 18,07</t>
+          <t>3,05; 28,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 1059,52</t>
+          <t>6,65; 39,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,14; 513,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,35; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>19,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>352,69%</t>
+          <t>20,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>297,96%</t>
+          <t>296,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>241,85%</t>
+          <t>322,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>313,02%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>231,02%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 24,04</t>
+          <t>14,13; 24,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 19,57</t>
+          <t>12,42; 21,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 17,6</t>
+          <t>11,18; 20,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>214,18; 560,93</t>
+          <t>14,62; 25,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>184,8; 497,88</t>
+          <t>156,29; 579,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>137,97; 405,87</t>
+          <t>168,5; 614,3</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>155,34; 604,64</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>125,38; 401,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_10-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>22,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>24,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>19,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>25,7</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>317,54%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>630,63%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>373,12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>253,95%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>24.08658601016741</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>24.18001855404713</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>18.33739872666537</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>24.72862963823323</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>3.49918212443035</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>6.142488112323464</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.496256833656641</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.467339318618003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>15,0; 30,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>17,34; 31,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,6; 25,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>16,53; 34,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>143,94; 733,66</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>256,37; 1638,26</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>135,46; 885,24</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>112,13; 531,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>16.6682709653416</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>17.62148391149923</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11.17417523078163</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>14.97067425840934</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1.648258787078183</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>2.41189677672093</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>1.257719589732451</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>1.049487727672892</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>31.93959212358568</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>31.17220934309744</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.68364262850654</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>32.73742332203126</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>7.599538058720043</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>15.81036200853111</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>8.004551138271649</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.014160036019594</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>15,91</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,22</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,88</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>240,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>127,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>197,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>144,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 23,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 16,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,29; 19,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 21,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>64,94; 618,45</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>9,65; 376,16</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>47,05; 563,12</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>20,22; 349,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>15.03085575176506</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.48892765095698</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.42075448696629</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.70852771607904</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>2.183395297969954</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.549013678567758</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.886564800417654</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.577712702978494</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>15,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,8</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,97</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>464,79%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>317,26%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>753,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.761792538880777</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.160061800074304</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.205014082500821</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.460740191830551</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.5486764322215812</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2382912045949975</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.4436760067314519</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2240809416953563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,34; 31,44</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 26,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 28,99</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 39,67</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.92962042522663</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.02494613872718</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20.70690074190444</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>22.39760756942071</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.695334030524285</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.386431564744465</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.80762726617177</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.886094219774669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>19,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15,62</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20,34</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>296,74%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>322,65%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>313,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>231,02%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>14.91983700540969</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.92345156917199</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.98136805700138</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>21.52620660199769</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>5.049084467389369</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.885482547636685</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>8.256846323433018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>14,13; 24,55</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 21,36</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11,18; 20,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>14,62; 25,99</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>156,29; 579,03</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>168,5; 614,3</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>155,34; 604,64</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>125,38; 401,55</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.837203056614404</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3367668550965335</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.587209969973401</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>7.405593130001903</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>30.13017882886844</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>29.33463210672155</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>31.94145125496984</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>41.63035137516606</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>19.57246879123015</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>17.38015492460659</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>15.37414075976512</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>20.19423549674283</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.020282778679517</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.434883237421076</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.932266101619096</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.340445272750133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>14.37055398718334</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>12.9237009077658</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10.63458445010954</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>14.76291172397073</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.522675669954056</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.807367049984527</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1.339284468118719</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1.275412961551316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>25.38461357992558</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>21.96792774623133</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>20.09912411466187</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>26.01496272058457</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.838076466552209</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>6.48571773656153</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.82337519365784</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.049635127523617</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
